--- a/coordinates.xlsx
+++ b/coordinates.xlsx
@@ -360,12 +360,12 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>lat</t>
+          <t>long</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>lat</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -381,254 +381,254 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>-35.19630277777777</v>
+      </c>
+      <c r="B2">
         <v>-8.041286111111111</v>
       </c>
-      <c r="B2">
-        <v>-35.19630277777777</v>
-      </c>
       <c r="C2">
-        <v>19.78467654141387</v>
+        <v>66.26624612895462</v>
       </c>
       <c r="D2">
-        <v>169.6507606827524</v>
+        <v>173.2656707633173</v>
       </c>
     </row>
     <row r="3">
       <c r="C3">
-        <v>120.3014816255755</v>
+        <v>-25.55414410611931</v>
       </c>
       <c r="D3">
-        <v>122.7692080697142</v>
+        <v>142.6785961197031</v>
       </c>
     </row>
     <row r="4">
       <c r="C4">
-        <v>-109.7778857036751</v>
+        <v>-163.6055372995401</v>
       </c>
       <c r="D4">
-        <v>178.5043809385302</v>
+        <v>212.6335549214862</v>
       </c>
     </row>
     <row r="5">
       <c r="C5">
-        <v>78.47769679150466</v>
+        <v>9.468649267773118</v>
       </c>
       <c r="D5">
-        <v>194.4059282395452</v>
+        <v>234.5252131391234</v>
       </c>
     </row>
     <row r="6">
       <c r="C6">
-        <v>-33.59033844101221</v>
+        <v>129.0682053998726</v>
       </c>
       <c r="D6">
-        <v>40.69512601096601</v>
+        <v>43.38276794851311</v>
       </c>
     </row>
     <row r="7">
       <c r="C7">
-        <v>-23.52799511632654</v>
+        <v>118.0197971337859</v>
       </c>
       <c r="D7">
-        <v>99.4920927366837</v>
+        <v>102.6701866036969</v>
       </c>
     </row>
     <row r="8">
       <c r="C8">
-        <v>56.98769137613669</v>
+        <v>27.99423961891065</v>
       </c>
       <c r="D8">
-        <v>54.30281905861622</v>
+        <v>62.62552101450152</v>
       </c>
     </row>
     <row r="9">
       <c r="C9">
-        <v>27.23893698630676</v>
+        <v>57.82247016304152</v>
       </c>
       <c r="D9">
-        <v>40.90070202919319</v>
+        <v>42.68871649655923</v>
       </c>
     </row>
     <row r="10">
       <c r="C10">
-        <v>-133.9211002842134</v>
+        <v>-141.7638576015277</v>
       </c>
       <c r="D10">
-        <v>103.9596289276611</v>
+        <v>115.7712185651046</v>
       </c>
     </row>
     <row r="11">
       <c r="C11">
-        <v>2.447387184236844</v>
+        <v>87.00951302332027</v>
       </c>
       <c r="D11">
-        <v>201.4240470667634</v>
+        <v>200.2221681110879</v>
       </c>
     </row>
     <row r="12">
       <c r="C12">
-        <v>-158.8782429652758</v>
+        <v>-115.2738503653425</v>
       </c>
       <c r="D12">
-        <v>33.69810416438923</v>
+        <v>34.53867755091041</v>
       </c>
     </row>
     <row r="13">
       <c r="C13">
-        <v>-153.2402563635847</v>
+        <v>-121.6453102792624</v>
       </c>
       <c r="D13">
-        <v>382.0704315464281</v>
+        <v>398.1675225514543</v>
       </c>
     </row>
     <row r="14">
       <c r="C14">
-        <v>103.7399096240659</v>
+        <v>-11.31302706143295</v>
       </c>
       <c r="D14">
-        <v>145.3166732649672</v>
+        <v>174.8205722261661</v>
       </c>
     </row>
     <row r="15">
       <c r="C15">
-        <v>147.995679389742</v>
+        <v>-52.62463068105861</v>
       </c>
       <c r="D15">
-        <v>191.8820893689081</v>
+        <v>203.4467576568445</v>
       </c>
     </row>
     <row r="16">
       <c r="C16">
-        <v>-40.90947942808613</v>
+        <v>136.6447570359038</v>
       </c>
       <c r="D16">
-        <v>241.8158019168409</v>
+        <v>264.4902170227521</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>-35.19621944444444</v>
+      </c>
+      <c r="B17">
         <v>-8.041044444444445</v>
       </c>
-      <c r="B17">
-        <v>-35.19621944444444</v>
-      </c>
       <c r="C17">
-        <v>143.7664648744391</v>
+        <v>-48.15074066962603</v>
       </c>
       <c r="D17">
-        <v>178.0410245656311</v>
+        <v>191.554550469853</v>
       </c>
     </row>
     <row r="18">
       <c r="C18">
-        <v>100.6983272119612</v>
+        <v>-8.786703908889159</v>
       </c>
       <c r="D18">
-        <v>96.28338755759995</v>
+        <v>116.2614160447615</v>
       </c>
     </row>
     <row r="19">
       <c r="C19">
-        <v>108.4844802287342</v>
+        <v>-15.296833632902</v>
       </c>
       <c r="D19">
-        <v>158.4361319650143</v>
+        <v>189.185887616363</v>
       </c>
     </row>
     <row r="20">
       <c r="C20">
-        <v>129.1522993239794</v>
+        <v>-33.66904861951783</v>
       </c>
       <c r="D20">
-        <v>130.8098499138191</v>
+        <v>148.0218177577202</v>
       </c>
     </row>
     <row r="21">
       <c r="C21">
-        <v>109.0177263722945</v>
+        <v>-15.74843470576612</v>
       </c>
       <c r="D21">
-        <v>164.5540893771064</v>
+        <v>196.303535000873</v>
       </c>
     </row>
     <row r="22">
       <c r="C22">
-        <v>143.6719156196654</v>
+        <v>-48.05156290250891</v>
       </c>
       <c r="D22">
-        <v>128.5287377319152</v>
+        <v>138.3335131970775</v>
       </c>
     </row>
     <row r="23">
       <c r="C23">
-        <v>-44.23335840904906</v>
+        <v>139.9589635289357</v>
       </c>
       <c r="D23">
-        <v>235.7043806821544</v>
+        <v>260.8294987402039</v>
       </c>
     </row>
     <row r="24">
       <c r="C24">
-        <v>-81.12243304154497</v>
+        <v>172.7179099406849</v>
       </c>
       <c r="D24">
-        <v>109.8371610020309</v>
+        <v>132.8652132539594</v>
       </c>
     </row>
     <row r="25">
       <c r="C25">
-        <v>-10.40611738003138</v>
+        <v>102.6511282407744</v>
       </c>
       <c r="D25">
-        <v>92.43295013455341</v>
+        <v>92.5778163111207</v>
       </c>
     </row>
     <row r="26">
       <c r="C26">
-        <v>-40.54873415745084</v>
+        <v>136.2801747462221</v>
       </c>
       <c r="D26">
-        <v>163.0423951379041</v>
+        <v>178.1047124542434</v>
       </c>
     </row>
     <row r="27">
       <c r="C27">
-        <v>-41.03583315111378</v>
+        <v>136.7715862000828</v>
       </c>
       <c r="D27">
-        <v>189.574077785494</v>
+        <v>207.44112556738</v>
       </c>
     </row>
     <row r="28">
       <c r="C28">
-        <v>-126.8910491086961</v>
+        <v>-148.4456885486338</v>
       </c>
       <c r="D28">
-        <v>98.0545786663869</v>
+        <v>111.7596901200424</v>
       </c>
     </row>
     <row r="29">
       <c r="C29">
-        <v>164.4059163148007</v>
+        <v>-71.16438397036443</v>
       </c>
       <c r="D29">
-        <v>31.99556691364664</v>
+        <v>32.3526590805841</v>
       </c>
     </row>
     <row r="30">
       <c r="C30">
-        <v>-10.33786260422537</v>
+        <v>102.56878929778</v>
       </c>
       <c r="D30">
-        <v>36.65183874697104</v>
+        <v>36.70518828241583</v>
       </c>
     </row>
     <row r="31">
       <c r="C31">
-        <v>19.78467654141387</v>
+        <v>66.26624612895462</v>
       </c>
       <c r="D31">
-        <v>169.6507606827524</v>
+        <v>173.2656707633173</v>
       </c>
     </row>
   </sheetData>

--- a/coordinates.xlsx
+++ b/coordinates.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>azimuthe</t>
+          <t>azimuth</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
